--- a/steam_prices.xlsx
+++ b/steam_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,78 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:41:00</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AWP | Asiimov (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>164.46</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:41:00</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-18.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:42:21</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:44:49</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/steam_prices.xlsx
+++ b/steam_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:45:26</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/steam_prices.xlsx
+++ b/steam_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:46:03</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:46:40</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/steam_prices.xlsx
+++ b/steam_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,258 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:47:17</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:47:54</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:48:31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:49:08</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:50:22</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AWP | Asiimov (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>183</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:50:22</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4099999999999966</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:50:59</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:51:36</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:52:13</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:52:50</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:53:27</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:54:04</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:54:41</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AK-47 | Redline (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-04-28 16:55:18</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
